--- a/reportes/RI10.10.11.153.xlsx
+++ b/reportes/RI10.10.11.153.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>YONATHAN</t>
-  </si>
-  <si>
-    <t>ANTONY CRITOFER</t>
-  </si>
-  <si>
-    <t>7527/201757545</t>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>RECOF</t>
+  </si>
+  <si>
+    <t>DOUGLAS</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>2017-0022405/201769765</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -70,63 +70,63 @@
     <t>Teléfono</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirección habitual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teléfono </t>
+  </si>
+  <si>
+    <t>Fecha de nacimiento (Día     Mes     Año )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edad en años </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lugar de nacimiento </t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>2001-11-16</t>
+  </si>
+  <si>
+    <t>15 AÑOS</t>
+  </si>
+  <si>
+    <t>SAN MARCOS</t>
+  </si>
+  <si>
+    <t>MASCULINO</t>
+  </si>
+  <si>
+    <t>Estado Civil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocupación </t>
+  </si>
+  <si>
+    <t>Nacionalidad</t>
+  </si>
+  <si>
+    <t>No. De Cédula</t>
+  </si>
+  <si>
+    <t>SOLTERO</t>
+  </si>
+  <si>
+    <t>ESTUDIANTE</t>
+  </si>
+  <si>
+    <t>GUATEMATECO</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Dirección habitual </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teléfono </t>
-  </si>
-  <si>
-    <t>Fecha de nacimiento (Día     Mes     Año )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edad en años </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lugar de nacimiento </t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>1998-05-18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>CAPITAL</t>
-  </si>
-  <si>
-    <t>MASCULINO</t>
-  </si>
-  <si>
-    <t>Estado Civil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocupación </t>
-  </si>
-  <si>
-    <t>Nacionalidad</t>
-  </si>
-  <si>
-    <t>No. De Cédula</t>
-  </si>
-  <si>
-    <t>SOLTERO</t>
-  </si>
-  <si>
-    <t>ESTUDIANTE</t>
-  </si>
-  <si>
-    <t>GUATEMALTECO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIN DOCUMENTO </t>
-  </si>
-  <si>
     <t>Nombre del Cónyugue</t>
   </si>
   <si>
@@ -148,16 +148,13 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t>MARTA GARCIA</t>
+    <t>ODRI RECOF</t>
   </si>
   <si>
     <t>MADRE</t>
   </si>
   <si>
-    <t>MZ 39 LOTE 12 T. NUEVA 1</t>
-  </si>
-  <si>
-    <t>54126136</t>
+    <t>57236844</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -184,10 +181,10 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>8/11/2017</t>
-  </si>
-  <si>
-    <t>9:53:10</t>
+    <t>20/11/2017</t>
+  </si>
+  <si>
+    <t>14:17:2</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1375,24 +1372,24 @@
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1419,36 +1416,36 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="28" t="s">
         <v>50</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>51</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>17</v>
@@ -1463,7 +1460,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1504,7 +1501,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1515,7 +1512,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1547,7 +1544,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1558,7 +1555,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1603,7 +1600,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1614,7 +1611,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1647,46 +1644,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="C38" s="44" t="s">
         <v>64</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>65</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="47" t="s">
         <v>69</v>
-      </c>
-      <c r="C39" s="47" t="s">
-        <v>70</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1706,7 +1703,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1715,13 +1712,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1736,7 +1733,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>
